--- a/data/statistical/filled_NaN_xlsx/天津市_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/天津市_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>47.3</v>
       </c>
       <c r="E2">
-        <v>4833.448214232922</v>
+        <v>4833.448213964701</v>
       </c>
       <c r="F2">
         <v>7191.96</v>
@@ -609,85 +609,85 @@
         <v>1.45</v>
       </c>
       <c r="H2">
-        <v>71.30999483983032</v>
+        <v>71.30999483977212</v>
       </c>
       <c r="I2">
-        <v>3.84534571723907</v>
+        <v>3.845345717180862</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-56.98175395024009</v>
       </c>
       <c r="K2">
-        <v>20.77104223438073</v>
+        <v>20.77104223467177</v>
       </c>
       <c r="L2">
-        <v>1.493844859351157</v>
+        <v>1.493844859371166</v>
       </c>
       <c r="M2">
-        <v>101.9200957687572</v>
+        <v>101.9200957501307</v>
       </c>
       <c r="N2">
-        <v>128.6205676593241</v>
+        <v>122.5995303648203</v>
       </c>
       <c r="O2">
-        <v>23.5058088270016</v>
+        <v>23.50580881675705</v>
       </c>
       <c r="P2">
-        <v>174950.9075883627</v>
+        <v>174950.9075887203</v>
       </c>
       <c r="Q2">
-        <v>62.37879901740234</v>
+        <v>62.37879901798442</v>
       </c>
       <c r="R2">
-        <v>18.40478585322853</v>
+        <v>18.40478585427627</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-78865.74490070343</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.645736263697472</v>
+        <v>1.645736263702929</v>
       </c>
       <c r="V2">
-        <v>37.8907430365216</v>
+        <v>37.89074303931557</v>
       </c>
       <c r="W2">
-        <v>51.54125274973921</v>
+        <v>51.54125274834223</v>
       </c>
       <c r="X2">
-        <v>6185.659299015999</v>
+        <v>6185.659299820662</v>
       </c>
       <c r="Y2">
-        <v>92.5649258034211</v>
+        <v>92.89444497960581</v>
       </c>
       <c r="Z2">
-        <v>9499.637781081201</v>
+        <v>6713.483221029232</v>
       </c>
       <c r="AA2">
-        <v>309.4825175339356</v>
+        <v>24.37762237945572</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>355156.8333415985</v>
       </c>
       <c r="AC2">
-        <v>126138.2224760056</v>
+        <v>620352.9826488495</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-3368.886364068836</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-1071.249550484121</v>
       </c>
       <c r="AF2">
-        <v>1412.200848394214</v>
+        <v>-25.04317281403283</v>
       </c>
       <c r="AG2">
-        <v>18059.15366899967</v>
+        <v>-18388.0730137229</v>
       </c>
       <c r="AH2">
-        <v>20956.72275451751</v>
+        <v>15323.2650282383</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>1.1</v>
       </c>
       <c r="H3">
-        <v>72.50928534555715</v>
+        <v>72.50928534551349</v>
       </c>
       <c r="I3">
         <v>3.8</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-34.43602211528923</v>
       </c>
       <c r="K3">
         <v>19.3946540575556</v>
@@ -743,7 +743,7 @@
         <v>69.01000000000001</v>
       </c>
       <c r="R3">
-        <v>16.55995097337291</v>
+        <v>16.55995097372215</v>
       </c>
       <c r="S3">
         <v>19828.3</v>
@@ -764,34 +764,34 @@
         <v>6381</v>
       </c>
       <c r="Y3">
-        <v>93.39165558379885</v>
+        <v>91.57646850713839</v>
       </c>
       <c r="Z3">
-        <v>5769.518363740832</v>
+        <v>3266.646714266</v>
       </c>
       <c r="AA3">
-        <v>281.9440559865907</v>
+        <v>26.23076923238114</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>307793.6242256165</v>
       </c>
       <c r="AC3">
-        <v>138276.8616228104</v>
+        <v>545138.9525604248</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-2917.379370994866</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-946.5458800531924</v>
       </c>
       <c r="AF3">
-        <v>681.6310329904707</v>
+        <v>25.46035679741728</v>
       </c>
       <c r="AG3">
-        <v>15624.74143153429</v>
+        <v>-15656.92663806677</v>
       </c>
       <c r="AH3">
-        <v>36941.02477097321</v>
+        <v>14554.167126894</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>1.34</v>
       </c>
       <c r="H4">
-        <v>73.65308823517989</v>
+        <v>73.65308823516534</v>
       </c>
       <c r="I4">
         <v>3.8</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-11.65707865584409</v>
       </c>
       <c r="K4">
         <v>14.786384953889</v>
@@ -847,7 +847,7 @@
         <v>61.82</v>
       </c>
       <c r="R4">
-        <v>15.03235293552279</v>
+        <v>15.03235293540638</v>
       </c>
       <c r="S4">
         <v>23700.6</v>
@@ -868,34 +868,34 @@
         <v>5934</v>
       </c>
       <c r="Y4">
-        <v>94.9092923949166</v>
+        <v>92.52871240978328</v>
       </c>
       <c r="Z4">
         <v>4787</v>
       </c>
       <c r="AA4">
-        <v>256.5194805534557</v>
+        <v>28.36563436710276</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>265835.9897384644</v>
       </c>
       <c r="AC4">
-        <v>153475.1212482452</v>
+        <v>477031.485906601</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-2476.452298011631</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-825.7258908059448</v>
       </c>
       <c r="AF4">
-        <v>570.7130038542215</v>
+        <v>75.02774863897511</v>
       </c>
       <c r="AG4">
-        <v>13385.63913410902</v>
+        <v>-13114.54773163795</v>
       </c>
       <c r="AH4">
-        <v>33419.49872165861</v>
+        <v>14481.60169243813</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.7</v>
       </c>
       <c r="J5">
-        <v>11.35507642745506</v>
+        <v>11.35507642838638</v>
       </c>
       <c r="K5">
         <v>12.461722022511</v>
@@ -972,34 +972,34 @@
         <v>1842</v>
       </c>
       <c r="Y5">
-        <v>93.27688549076889</v>
+        <v>93.0942397529724</v>
       </c>
       <c r="Z5">
         <v>3591</v>
       </c>
       <c r="AA5">
-        <v>233.2087912373245</v>
+        <v>30.78221778338775</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>229283.9298820496</v>
       </c>
       <c r="AC5">
-        <v>171733.0013542175</v>
+        <v>416030.5826892853</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-2046.105145115405</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-708.7895827451721</v>
       </c>
       <c r="AF5">
-        <v>418.8337917963633</v>
+        <v>751.0932587911626</v>
       </c>
       <c r="AG5">
-        <v>11341.84677672386</v>
+        <v>-10760.93629467487</v>
       </c>
       <c r="AH5">
-        <v>18539.90464269138</v>
+        <v>15105.56872606277</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>1586</v>
       </c>
       <c r="Y6">
-        <v>94.09482836480919</v>
+        <v>93.61424806909812</v>
       </c>
       <c r="Z6">
         <v>3003</v>
       </c>
       <c r="AA6">
-        <v>212.0119880335405</v>
+        <v>33.48051948158536</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>198137.44465065</v>
       </c>
       <c r="AC6">
-        <v>193050.5019426346</v>
+        <v>362136.2429122925</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-1626.337912295014</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-595.7369558652863</v>
       </c>
       <c r="AF6">
-        <v>1419.897556784858</v>
+        <v>-807.6232412903371</v>
       </c>
       <c r="AG6">
-        <v>9493.364359378815</v>
+        <v>-8596.092327177525</v>
       </c>
       <c r="AH6">
-        <v>35310.7750047278</v>
+        <v>16426.06822681427</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>4016</v>
       </c>
       <c r="AA7">
-        <v>192.9290709439665</v>
+        <v>36.46053946146276</v>
       </c>
       <c r="AB7">
-        <v>57266.82451248169</v>
+        <v>172396.5340442657</v>
       </c>
       <c r="AC7">
-        <v>217427.6230106354</v>
+        <v>315348.4665737152</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-1217.150599561632</v>
       </c>
       <c r="AE7">
-        <v>8692.304159641266</v>
+        <v>-486.5680101700127</v>
       </c>
       <c r="AF7">
-        <v>1102.724844669822</v>
+        <v>548.7160301692541</v>
       </c>
       <c r="AG7">
-        <v>7840.191882073879</v>
+        <v>-6620.015829145908</v>
       </c>
       <c r="AH7">
-        <v>23999.33578849699</v>
+        <v>18443.10019564629</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>11216</v>
       </c>
       <c r="AA8">
-        <v>175.9600399695337</v>
+        <v>39.72227772278711</v>
       </c>
       <c r="AB8">
-        <v>139570.147485733</v>
+        <v>152061.1980667114</v>
       </c>
       <c r="AC8">
-        <v>244864.3645591736</v>
+        <v>275667.2536754608</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-818.5432069189847</v>
       </c>
       <c r="AE8">
-        <v>17180.57039213181</v>
+        <v>-381.28274565842</v>
       </c>
       <c r="AF8">
-        <v>1408.334192944989</v>
+        <v>-645.9264868515702</v>
       </c>
       <c r="AG8">
-        <v>6382.329344928265</v>
+        <v>-4832.706800639629</v>
       </c>
       <c r="AH8">
-        <v>37032.26307252745</v>
+        <v>21156.66463136673</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>15654</v>
       </c>
       <c r="AA9">
-        <v>161.1048951111734</v>
+        <v>43.2657342661405</v>
       </c>
       <c r="AB9">
-        <v>217191.7355422974</v>
+        <v>137131.4367198944</v>
       </c>
       <c r="AC9">
-        <v>275360.7265901566</v>
+        <v>243092.6042137146</v>
       </c>
       <c r="AD9">
-        <v>150.9423079490662</v>
+        <v>-430.515734359622</v>
       </c>
       <c r="AE9">
-        <v>24273.84022045135</v>
+        <v>-279.8811623314396</v>
       </c>
       <c r="AF9">
-        <v>1134.951361023644</v>
+        <v>676.2756334751169</v>
       </c>
       <c r="AG9">
-        <v>5119.776747703552</v>
+        <v>-3234.165241420269</v>
       </c>
       <c r="AH9">
-        <v>40712.35719811746</v>
+        <v>24566.76153516769</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>11315</v>
       </c>
       <c r="AA10">
-        <v>148.3636363660917</v>
+        <v>47.09090909129009</v>
       </c>
       <c r="AB10">
-        <v>290131.5886802673</v>
+        <v>127607.2499961853</v>
       </c>
       <c r="AC10">
-        <v>308916.7090997696</v>
+        <v>217624.5181884766</v>
       </c>
       <c r="AD10">
-        <v>1040.159091174603</v>
+        <v>-53.06818187609315</v>
       </c>
       <c r="AE10">
-        <v>29972.11364507675</v>
+        <v>-182.3632601890713</v>
       </c>
       <c r="AF10">
-        <v>695.0392870576304</v>
+        <v>-230.1041062099841</v>
       </c>
       <c r="AG10">
-        <v>4052.534090518951</v>
+        <v>-1824.391151666641</v>
       </c>
       <c r="AH10">
-        <v>36556.22437320968</v>
+        <v>28673.3909060955</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>7401</v>
       </c>
       <c r="AA11">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="AB11">
-        <v>321478</v>
+        <v>83002</v>
       </c>
       <c r="AC11">
-        <v>298335</v>
+        <v>182695</v>
       </c>
       <c r="AD11">
-        <v>1773</v>
+        <v>423</v>
       </c>
       <c r="AE11">
-        <v>18642</v>
+        <v>35</v>
       </c>
       <c r="AF11">
-        <v>1478</v>
+        <v>179</v>
       </c>
       <c r="AG11">
-        <v>6142</v>
+        <v>433</v>
       </c>
       <c r="AH11">
-        <v>72918</v>
+        <v>39609</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>5357</v>
       </c>
       <c r="AA12">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="AB12">
-        <v>392072</v>
+        <v>134342</v>
       </c>
       <c r="AC12">
-        <v>394316</v>
+        <v>198913</v>
       </c>
       <c r="AD12">
-        <v>2663</v>
+        <v>652</v>
       </c>
       <c r="AE12">
-        <v>50288</v>
+        <v>1.02150053624064</v>
       </c>
       <c r="AF12">
-        <v>321</v>
+        <v>3800</v>
       </c>
       <c r="AG12">
-        <v>862</v>
+        <v>137</v>
       </c>
       <c r="AH12">
-        <v>29536</v>
+        <v>46178</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>5792</v>
       </c>
       <c r="AA13">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="AB13">
-        <v>451315</v>
+        <v>155535</v>
       </c>
       <c r="AC13">
-        <v>438171</v>
+        <v>187538</v>
       </c>
       <c r="AD13">
-        <v>3456</v>
+        <v>1005</v>
       </c>
       <c r="AE13">
-        <v>43753</v>
+        <v>86.888359121047</v>
       </c>
       <c r="AF13">
-        <v>1360</v>
+        <v>3</v>
       </c>
       <c r="AG13">
-        <v>307</v>
+        <v>1272.32630062103</v>
       </c>
       <c r="AH13">
-        <v>18394</v>
+        <v>33554</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>7061</v>
       </c>
       <c r="AA14">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="AB14">
-        <v>509798</v>
+        <v>173964</v>
       </c>
       <c r="AC14">
-        <v>437203</v>
+        <v>194768</v>
       </c>
       <c r="AD14">
-        <v>3540</v>
+        <v>1145</v>
       </c>
       <c r="AE14">
-        <v>38479</v>
+        <v>78</v>
       </c>
       <c r="AF14">
-        <v>1440</v>
+        <v>50</v>
       </c>
       <c r="AG14">
-        <v>463</v>
+        <v>260</v>
       </c>
       <c r="AH14">
-        <v>28022</v>
+        <v>47806</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>8032</v>
       </c>
       <c r="AA15">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="AB15">
-        <v>824042</v>
+        <v>168616</v>
       </c>
       <c r="AC15">
-        <v>690950</v>
+        <v>191035</v>
       </c>
       <c r="AD15">
-        <v>5023</v>
+        <v>1645</v>
       </c>
       <c r="AE15">
-        <v>44105</v>
+        <v>96</v>
       </c>
       <c r="AF15">
-        <v>756</v>
+        <v>4</v>
       </c>
       <c r="AG15">
-        <v>139</v>
+        <v>702</v>
       </c>
       <c r="AH15">
-        <v>17924</v>
+        <v>61799</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>9291</v>
       </c>
       <c r="AA16">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="AB16">
-        <v>698875</v>
+        <v>192664</v>
       </c>
       <c r="AC16">
-        <v>540257</v>
+        <v>224756</v>
       </c>
       <c r="AD16">
-        <v>6078</v>
+        <v>1891</v>
       </c>
       <c r="AE16">
-        <v>30738</v>
+        <v>160</v>
       </c>
       <c r="AF16">
-        <v>2000</v>
+        <v>211</v>
       </c>
       <c r="AG16">
-        <v>2906</v>
+        <v>5087</v>
       </c>
       <c r="AH16">
-        <v>10947</v>
+        <v>36692</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>320.4323</v>
       </c>
       <c r="K17">
-        <v>6.093818656634539</v>
+        <v>6.093818656576332</v>
       </c>
       <c r="L17">
-        <v>0.4849105536086427</v>
+        <v>0.4849105535904528</v>
       </c>
       <c r="M17">
         <v>1.35563870983046</v>
@@ -2217,7 +2217,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>-109.5380002260208</v>
       </c>
       <c r="Y17">
         <v>91.7</v>
@@ -2226,28 +2226,28 @@
         <v>12224</v>
       </c>
       <c r="AA17">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="AB17">
-        <v>665098.4</v>
+        <v>225562.8</v>
       </c>
       <c r="AC17">
-        <v>651633.2</v>
+        <v>253203.1</v>
       </c>
       <c r="AD17">
-        <v>6250</v>
+        <v>2480</v>
       </c>
       <c r="AE17">
-        <v>35815</v>
+        <v>308</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG17">
-        <v>3935</v>
+        <v>2164</v>
       </c>
       <c r="AH17">
-        <v>50290</v>
+        <v>101183</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>351.5</v>
       </c>
       <c r="K18">
-        <v>6.848909020773135</v>
+        <v>6.848909020714927</v>
       </c>
       <c r="L18">
-        <v>0.48031373140293</v>
+        <v>0.4803137313811021</v>
       </c>
       <c r="M18">
         <v>1.01155577671875</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.4703076922905893</v>
+        <v>0.4703076922050968</v>
       </c>
       <c r="V18">
         <v>93.8</v>
@@ -2330,28 +2330,28 @@
         <v>8648</v>
       </c>
       <c r="AA18">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AB18">
-        <v>681069</v>
+        <v>207185.3</v>
       </c>
       <c r="AC18">
-        <v>687000.9</v>
+        <v>264780.2</v>
       </c>
       <c r="AD18">
-        <v>6504</v>
+        <v>2709</v>
       </c>
       <c r="AE18">
-        <v>30155.7</v>
+        <v>457.967434332706</v>
       </c>
       <c r="AF18">
-        <v>1038.272260742569</v>
+        <v>8.5</v>
       </c>
       <c r="AG18">
-        <v>2083.2</v>
+        <v>3778.4</v>
       </c>
       <c r="AH18">
-        <v>13115.8</v>
+        <v>75207.10000000001</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>63.5</v>
       </c>
       <c r="E19">
-        <v>39821.62321466208</v>
+        <v>39821.6232149601</v>
       </c>
       <c r="F19">
         <v>34810.7173</v>
@@ -2386,10 +2386,10 @@
         <v>340.4</v>
       </c>
       <c r="K19">
-        <v>7.82069587695878</v>
+        <v>7.820695876900572</v>
       </c>
       <c r="L19">
-        <v>0.4835500923036307</v>
+        <v>0.4835500922818028</v>
       </c>
       <c r="M19">
         <v>1.26422617815301</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.3298516483282583</v>
+        <v>0.3298516482173</v>
       </c>
       <c r="V19">
         <v>96</v>
       </c>
       <c r="W19">
-        <v>78.1791868081782</v>
+        <v>78.17918680794537</v>
       </c>
       <c r="X19">
         <v>67</v>
@@ -2434,28 +2434,28 @@
         <v>16538</v>
       </c>
       <c r="AA19">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AB19">
-        <v>524978.4</v>
+        <v>248540.7</v>
       </c>
       <c r="AC19">
-        <v>625142.1</v>
+        <v>271485.1</v>
       </c>
       <c r="AD19">
-        <v>5540</v>
+        <v>3044</v>
       </c>
       <c r="AE19">
-        <v>2709.5</v>
+        <v>1211.5</v>
       </c>
       <c r="AF19">
-        <v>14.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="AG19">
-        <v>6231.1</v>
+        <v>2661.6</v>
       </c>
       <c r="AH19">
-        <v>49442.3</v>
+        <v>139997.8</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>63.4</v>
       </c>
       <c r="E20">
-        <v>42494.65346682072</v>
+        <v>42494.65346717834</v>
       </c>
       <c r="F20">
         <v>30894.7045</v>
@@ -2493,7 +2493,7 @@
         <v>9.009179225075059</v>
       </c>
       <c r="L20">
-        <v>0.4946196363089257</v>
+        <v>0.4946196362834598</v>
       </c>
       <c r="M20">
         <v>0.723955940649246</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.1815142210398335</v>
+        <v>0.1815142209070473</v>
       </c>
       <c r="V20">
         <v>96.40000000000001</v>
       </c>
       <c r="W20">
-        <v>71.15835261251777</v>
+        <v>71.15835261181928</v>
       </c>
       <c r="X20">
         <v>68</v>
@@ -2538,28 +2538,28 @@
         <v>2535</v>
       </c>
       <c r="AA20">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="AB20">
-        <v>661557</v>
+        <v>329752</v>
       </c>
       <c r="AC20">
-        <v>783510</v>
+        <v>372628</v>
       </c>
       <c r="AD20">
-        <v>6731</v>
+        <v>3078</v>
       </c>
       <c r="AE20">
-        <v>70</v>
+        <v>669</v>
       </c>
       <c r="AF20">
-        <v>817.9106674108841</v>
+        <v>765.894249610025</v>
       </c>
       <c r="AG20">
-        <v>1822</v>
+        <v>2304</v>
       </c>
       <c r="AH20">
-        <v>26838</v>
+        <v>104602</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>62.1</v>
       </c>
       <c r="E21">
-        <v>45236.00619798899</v>
+        <v>45236.00619840622</v>
       </c>
       <c r="F21">
         <v>36066.9</v>
@@ -2594,19 +2594,19 @@
         <v>405.7258</v>
       </c>
       <c r="K21">
-        <v>10.41435906523839</v>
+        <v>10.41435906529659</v>
       </c>
       <c r="L21">
-        <v>0.5135223634188151</v>
+        <v>0.5135223633897112</v>
       </c>
       <c r="M21">
         <v>0.542209312954028</v>
       </c>
       <c r="N21">
-        <v>127.0651402636448</v>
+        <v>137.4001078624565</v>
       </c>
       <c r="O21">
-        <v>111.0660048890859</v>
+        <v>111.0660048960708</v>
       </c>
       <c r="P21">
         <v>120461.7</v>
@@ -2624,46 +2624,46 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0.0252954104271339</v>
+        <v>0.02529541027070081</v>
       </c>
       <c r="V21">
         <v>96.8</v>
       </c>
       <c r="W21">
-        <v>63.18332158401608</v>
+        <v>63.18332158285193</v>
       </c>
       <c r="X21">
-        <v>998.602083325386</v>
+        <v>998.6020824611187</v>
       </c>
       <c r="Y21">
-        <v>94.65379697300355</v>
+        <v>94.82906292225137</v>
       </c>
       <c r="Z21">
         <v>5396</v>
       </c>
       <c r="AA21">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AB21">
-        <v>816508</v>
+        <v>363195</v>
       </c>
       <c r="AC21">
-        <v>855378</v>
+        <v>377626</v>
       </c>
       <c r="AD21">
-        <v>7327</v>
+        <v>3094</v>
       </c>
       <c r="AE21">
-        <v>794</v>
+        <v>189</v>
       </c>
       <c r="AF21">
-        <v>912.9124380917807</v>
+        <v>189</v>
       </c>
       <c r="AG21">
-        <v>6338</v>
+        <v>203</v>
       </c>
       <c r="AH21">
-        <v>26980</v>
+        <v>93570</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>61.3</v>
       </c>
       <c r="E22">
-        <v>48045.68140819669</v>
+        <v>48045.68140864372</v>
       </c>
       <c r="F22">
         <v>33823.6004</v>
@@ -2692,34 +2692,34 @@
         <v>85.11</v>
       </c>
       <c r="I22">
-        <v>3.632012383863184</v>
+        <v>3.632012383928668</v>
       </c>
       <c r="J22">
-        <v>438.2430914284778</v>
+        <v>438.2430914275465</v>
       </c>
       <c r="K22">
         <v>12.03623539744876</v>
       </c>
       <c r="L22">
-        <v>0.5402582736351178</v>
+        <v>0.540258273602376</v>
       </c>
       <c r="M22">
-        <v>5.859457175247371</v>
+        <v>5.859457194339484</v>
       </c>
       <c r="N22">
-        <v>131.7249176999553</v>
+        <v>118.9173812883595</v>
       </c>
       <c r="O22">
-        <v>129.9357752683572</v>
+        <v>129.9357752762735</v>
       </c>
       <c r="P22">
-        <v>126870.8087585568</v>
+        <v>126870.8087578416</v>
       </c>
       <c r="Q22">
-        <v>89.9919182190788</v>
+        <v>89.99191821896238</v>
       </c>
       <c r="R22">
-        <v>41.78308823506813</v>
+        <v>41.7830882393755</v>
       </c>
       <c r="S22">
         <v>387872</v>
@@ -2728,46 +2728,46 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-0.1388047836899204</v>
       </c>
       <c r="V22">
-        <v>93.09004128060769</v>
+        <v>93.09004127746448</v>
       </c>
       <c r="W22">
-        <v>54.25409372267313</v>
+        <v>54.25409372150898</v>
       </c>
       <c r="X22">
-        <v>1458.983114808798</v>
+        <v>1458.983113825321</v>
       </c>
       <c r="Y22">
-        <v>93.07908777000119</v>
+        <v>90.63037968035145</v>
       </c>
       <c r="Z22">
-        <v>9493.619832155331</v>
+        <v>3385.151516139769</v>
       </c>
       <c r="AA22">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="AB22">
-        <v>919945.3</v>
+        <v>473670.8</v>
       </c>
       <c r="AC22">
-        <v>1036172.8</v>
+        <v>492345.2</v>
       </c>
       <c r="AD22">
-        <v>8372</v>
+        <v>3787</v>
       </c>
       <c r="AE22">
-        <v>802.8</v>
+        <v>712</v>
       </c>
       <c r="AF22">
-        <v>915.7894002724361</v>
+        <v>432.574046593408</v>
       </c>
       <c r="AG22">
-        <v>5250</v>
+        <v>356</v>
       </c>
       <c r="AH22">
-        <v>18408.7</v>
+        <v>137737.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>62.7</v>
       </c>
       <c r="E23">
-        <v>50923.67909735441</v>
+        <v>50923.67909780145</v>
       </c>
       <c r="F23">
-        <v>38708.08918536454</v>
+        <v>38708.08918540552</v>
       </c>
       <c r="G23">
         <v>-2.57</v>
       </c>
       <c r="H23">
-        <v>84.84269607812166</v>
+        <v>84.84269607822353</v>
       </c>
       <c r="I23">
-        <v>3.663265221833171</v>
+        <v>3.663265221905931</v>
       </c>
       <c r="J23">
-        <v>465.4530557560502</v>
+        <v>465.4530557550024</v>
       </c>
       <c r="K23">
         <v>13.87480822158977</v>
       </c>
       <c r="L23">
-        <v>0.5748273669560149</v>
+        <v>0.5748273669250921</v>
       </c>
       <c r="M23">
-        <v>8.981253140605986</v>
+        <v>8.981253162259236</v>
       </c>
       <c r="N23">
-        <v>120.9434071069876</v>
+        <v>112.0463838526896</v>
       </c>
       <c r="O23">
-        <v>150.2316795494407</v>
+        <v>150.2316795578226</v>
       </c>
       <c r="P23">
-        <v>126368.6036379933</v>
+        <v>126368.6036372781</v>
       </c>
       <c r="Q23">
         <v>88.67910475219833</v>
       </c>
       <c r="R23">
-        <v>46.28299019520637</v>
+        <v>46.28299020032864</v>
       </c>
       <c r="S23">
-        <v>620740.0750789642</v>
+        <v>620740.0750870705</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-0.3107863609766355</v>
       </c>
       <c r="V23">
-        <v>91.34728173515759</v>
+        <v>91.34728173154872</v>
       </c>
       <c r="W23">
-        <v>44.37066902872175</v>
+        <v>44.37066902709194</v>
       </c>
       <c r="X23">
-        <v>1992.702550590038</v>
+        <v>1992.70254945755</v>
       </c>
       <c r="Y23">
-        <v>93.15316224257467</v>
+        <v>94.94034495955262</v>
       </c>
       <c r="Z23">
-        <v>8725.720244846667</v>
+        <v>7685.313326545785</v>
       </c>
       <c r="AA23">
-        <v>175.0909091094509</v>
+        <v>122.4545454545878</v>
       </c>
       <c r="AB23">
-        <v>812311.8022270203</v>
+        <v>495700.1136989594</v>
       </c>
       <c r="AC23">
-        <v>1023569.9454813</v>
+        <v>533236.6727752686</v>
       </c>
       <c r="AD23">
-        <v>7954.022726848722</v>
+        <v>3890.97727265209</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>731.9544799393043</v>
       </c>
       <c r="AF23">
-        <v>1057.416320279222</v>
+        <v>1613.125342320973</v>
       </c>
       <c r="AG23">
-        <v>7951.584090828896</v>
+        <v>-675.1677045822144</v>
       </c>
       <c r="AH23">
-        <v>20008.6401973565</v>
+        <v>145444.027276516</v>
       </c>
     </row>
   </sheetData>
